--- a/biology/Botanique/Château-grillet_(AOC)/Château-grillet_(AOC).xlsx
+++ b/biology/Botanique/Château-grillet_(AOC)/Château-grillet_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-grillet_(AOC)</t>
+          <t>Château-grillet_(AOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château-grillet[2] est un vin blanc d'appellation d'origine contrôlée produit par un seul domaine qui s'étend sur une partie des deux communes de Saint-Michel-sur-Rhône et de Vérin, dans le département de la Loire.
+Le château-grillet est un vin blanc d'appellation d'origine contrôlée produit par un seul domaine qui s'étend sur une partie des deux communes de Saint-Michel-sur-Rhône et de Vérin, dans le département de la Loire.
 Il s'agit d'une appellation du vignoble de la vallée du Rhône septentrionale, enclavée au sein de celle produisant le condrieu, sur la rive droite du Rhône, au sud de la ville de Vienne.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-grillet_(AOC)</t>
+          <t>Château-grillet_(AOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,15 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Le domaine est exploité en vignoble depuis l’époque romaine.
-Moyen Âge
-Période moderne
-Sous le règne de Louis XIV, Girard Desargues (1593-1662), géomètre et architecte lyonnais, est propriétaire du domaine et y cultive des vignes ; il reçoit son confrère Blaise Pascal en 1652.
-À la fin de l’Ancien Régime, c'est la veuve Peyrouse qui exploite le vignoble ; en 1787, elle reçoit Thomas Jefferson, alors ambassadeur des États-Unis.
-Période contemporaine
-Le petit domaine de Château-Grillet, consacré appellation locale en 1936, appartient aujourd'hui à un seul propriétaire.
-En juin 2011, François Pinault rachète le domaine via sa holding Artémis. Château-Grillet appartenait à la famille Canet, descendant de la famille Neyret-Gachet, depuis 1830[3].
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine est exploité en vignoble depuis l’époque romaine.
 </t>
         </is>
       </c>
@@ -534,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-grillet_(AOC)</t>
+          <t>Château-grillet_(AOC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +559,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le règne de Louis XIV, Girard Desargues (1593-1662), géomètre et architecte lyonnais, est propriétaire du domaine et y cultive des vignes ; il reçoit son confrère Blaise Pascal en 1652.
+À la fin de l’Ancien Régime, c'est la veuve Peyrouse qui exploite le vignoble ; en 1787, elle reçoit Thomas Jefferson, alors ambassadeur des États-Unis.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -560,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-grillet_(AOC)</t>
+          <t>Château-grillet_(AOC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,20 +597,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie
-La plus petite appellation du vignoble de la vallée du Rhône est située entre 165 et 250 mètres d’altitude sur de fortes pentes allant jusqu'à 50 %. En forme d'amphithéâtre exposé au sud, il est abrité des vents du nord.
-Géologie
-Son terroir est très spécifique avec un sol de granite sombre à mica noir recouvert d’arène à gros grain, (du sable issu de la décomposition du granite) et d’un substrat caillouteux où se mêlent des roches métamorphiques de la famille des gneiss.
-C'est un sol pauvre, bien drainé, qui assure à la vigne des conditions de pousse optimales.
-Climatologie
-Ce terroir viticole est exposé plein sud avec des étés chauds et ensoleillés, des automnes doux et une pluviométrie bien étalée mais avec des hivers rigoureux, où la sensation de froid est renforcée par la bise. Son climat est de type semi-continental avec des influences méditerranéennes, la température moyenne annuelle a été, entre 1920 et 2008, de 11,7 °C avec un minimum de 2,8 °C en janvier et un maximum de 21 °C en juillet[4]. La température minimale y a été de −24,6 °C le 22 décembre 1938 et la plus élevée de 40,4 °C le 13 août 2003[5].
-L'ensoleillement y est de 1 976 heures par an en moyenne, soit environ 164 jours par an[6]. Les hivers sont relativement secs, et dépourvus de neige en plaine (toutefois de fortes précipitations ne sont pas exclues). Les frimas sont courants et les températures varient généralement d'une dizaine de degrés au plus pendant la journée. Les étés sont généralement chauds et secs : l'amplitude des températures en journée atteint parfois une vingtaine de degrés, et les températures maximales dépassent parfois les 35°. Le mois d'août est parfois frais et pluvieux (2006 et 2007) avec quelques orages et une légère brise qui disperse les polluants de l'air. Les mois d'août 2003 et 2009 étant au contraire très chauds et secs avec respectivement 33° et 30° de température maximale en moyenne. Le mistral souffle souvent, dû à a compression de l'air dans le sillon rhodanien.
-Source : Météo Stats[7]
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le petit domaine de Château-Grillet, consacré appellation locale en 1936, appartient aujourd'hui à un seul propriétaire.
+En juin 2011, François Pinault rachète le domaine via sa holding Artémis. Château-Grillet appartenait à la famille Canet, descendant de la famille Neyret-Gachet, depuis 1830.
 </t>
         </is>
       </c>
@@ -599,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-grillet_(AOC)</t>
+          <t>Château-grillet_(AOC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,27 +635,346 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Château-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus petite appellation du vignoble de la vallée du Rhône est située entre 165 et 250 mètres d’altitude sur de fortes pentes allant jusqu'à 50 %. En forme d'amphithéâtre exposé au sud, il est abrité des vents du nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Château-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son terroir est très spécifique avec un sol de granite sombre à mica noir recouvert d’arène à gros grain, (du sable issu de la décomposition du granite) et d’un substrat caillouteux où se mêlent des roches métamorphiques de la famille des gneiss.
+C'est un sol pauvre, bien drainé, qui assure à la vigne des conditions de pousse optimales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Château-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir viticole est exposé plein sud avec des étés chauds et ensoleillés, des automnes doux et une pluviométrie bien étalée mais avec des hivers rigoureux, où la sensation de froid est renforcée par la bise. Son climat est de type semi-continental avec des influences méditerranéennes, la température moyenne annuelle a été, entre 1920 et 2008, de 11,7 °C avec un minimum de 2,8 °C en janvier et un maximum de 21 °C en juillet. La température minimale y a été de −24,6 °C le 22 décembre 1938 et la plus élevée de 40,4 °C le 13 août 2003.
+L'ensoleillement y est de 1 976 heures par an en moyenne, soit environ 164 jours par an. Les hivers sont relativement secs, et dépourvus de neige en plaine (toutefois de fortes précipitations ne sont pas exclues). Les frimas sont courants et les températures varient généralement d'une dizaine de degrés au plus pendant la journée. Les étés sont généralement chauds et secs : l'amplitude des températures en journée atteint parfois une vingtaine de degrés, et les températures maximales dépassent parfois les 35°. Le mois d'août est parfois frais et pluvieux (2006 et 2007) avec quelques orages et une légère brise qui disperse les polluants de l'air. Les mois d'août 2003 et 2009 étant au contraire très chauds et secs avec respectivement 33° et 30° de température maximale en moyenne. Le mistral souffle souvent, dû à a compression de l'air dans le sillon rhodanien.
+Source : Météo Stats
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Château-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il étend ses 3,5 ha sur deux communes de la vallée du Rhône septentrionale. Le vignoble s'étend sur les communes de Saint-Michel-sur-Rhône et Vérin.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étend ses 3,5 ha sur deux communes de la vallée du Rhône septentrionale. Le vignoble s'étend sur les communes de Saint-Michel-sur-Rhône et Vérin.
 Cette appellation appartient à un seul propriétaire, c'est un monopole.
-Terroir
-Des arènes granitiques en terrasses escarpées forment ce vignoble ne couvrant que 3,8 hectares.
-Encépagement
-Tout le vignoble, planté du seul viognier, est en exposition plein sud. Ce cépage d'origine locale, est très aromatique avec des senteurs florales de violette de fruits : abricot, pêche. Relativement rustique envers les maladies, il est peu sensible à la pourriture grise. En revanche, il doit être palissé à cause de sa fragilité au vent[8]. Ici, le mistral peut faire des dégâts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Château-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Terroir</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des arènes granitiques en terrasses escarpées forment ce vignoble ne couvrant que 3,8 hectares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Château-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout le vignoble, planté du seul viognier, est en exposition plein sud. Ce cépage d'origine locale, est très aromatique avec des senteurs florales de violette de fruits : abricot, pêche. Relativement rustique envers les maladies, il est peu sensible à la pourriture grise. En revanche, il doit être palissé à cause de sa fragilité au vent. Ici, le mistral peut faire des dégâts.
 Comparaison de l'encépagement de l'AOC château-grillet avec les autres appellations locales des côtes-du-rhône septentrionales
 Dans les décrets d'appellation, une division est faite entre le cépages principaux (indiqué par "M"), les variétés supplémentaires (indiqué par "S") et celles autorisées (indiqué par "(A)").
-Méthode culturale
-Avec un rendement maximum de 37 hL/ha, cette AOC ne produit que 71 hL soit environ 10 000 bouteilles de vin par an.
-Vin et gastronomie
-Ce vin rare est considéré comme le premier vin de Condrieu. . Il donne un vin à la robe claire, brillante, jaune paille au nez caractérisé par les notes d’abricot et de pêche. Ce vin riche, gras, onctueux, souple et rond est à déguster pour lui-même ou en accompagnement de noix ou d’amandes.
-Millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Château-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Méthode culturale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un rendement maximum de 37 hL/ha, cette AOC ne produit que 71 hL soit environ 10 000 bouteilles de vin par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Château-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vin et gastronomie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vin rare est considéré comme le premier vin de Condrieu. . Il donne un vin à la robe claire, brillante, jaune paille au nez caractérisé par les notes d’abricot et de pêche. Ce vin riche, gras, onctueux, souple et rond est à déguster pour lui-même ou en accompagnement de noix ou d’amandes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Château-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau-grillet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Millésimes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Commercialisation</t>
+</t>
         </is>
       </c>
     </row>
